--- a/Qiymetlendirme.xlsx
+++ b/Qiymetlendirme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Fizza</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Homework</t>
+  </si>
+  <si>
+    <t>27.07.2024</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
   <dimension ref="A2:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,6 +395,7 @@
     <col min="1" max="1" width="8.88671875" style="3"/>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -404,8 +408,12 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -422,8 +430,12 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -437,9 +449,15 @@
       <c r="B4" s="1">
         <v>9</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -456,8 +474,12 @@
       <c r="C5" s="1">
         <v>8</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -471,9 +493,15 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
